--- a/HTML5/HTML-SIMULATION-STATUS.xlsx
+++ b/HTML5/HTML-SIMULATION-STATUS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>SNO</t>
   </si>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -456,10 +456,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -467,75 +467,86 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/HTML5/HTML-SIMULATION-STATUS.xlsx
+++ b/HTML5/HTML-SIMULATION-STATUS.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\trunk\HTML5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="20120" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>SNO</t>
   </si>
@@ -45,9 +50,6 @@
     <t>Wholenumbers</t>
   </si>
   <si>
-    <t>INPROGRESS</t>
-  </si>
-  <si>
     <t>Compound Microscope</t>
   </si>
   <si>
@@ -67,12 +69,15 @@
   </si>
   <si>
     <t>Separation of substance</t>
+  </si>
+  <si>
+    <t>BodyPartsMovements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,6 +118,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -161,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,17 +416,17 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -443,20 +451,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -465,9 +473,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -476,33 +484,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -511,36 +525,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -560,7 +577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -572,7 +589,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HTML5/HTML-SIMULATION-STATUS.xlsx
+++ b/HTML5/HTML-SIMULATION-STATUS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\trunk\HTML5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="20120" windowHeight="8000"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>SNO</t>
   </si>
@@ -72,15 +67,59 @@
   </si>
   <si>
     <t>BodyPartsMovements</t>
+  </si>
+  <si>
+    <t>14-3-2020</t>
+  </si>
+  <si>
+    <t>Agriculture in India</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>Biosphere_Desert regions of the World</t>
+  </si>
+  <si>
+    <t>Democratic_Europe</t>
+  </si>
+  <si>
+    <t>Earth Movements and Seasons</t>
+  </si>
+  <si>
+    <t>Energy from sun</t>
+  </si>
+  <si>
+    <t>Industries in India</t>
+  </si>
+  <si>
+    <t>Minerals and Mining</t>
+  </si>
+  <si>
+    <t>Money and Banking-Cheque</t>
+  </si>
+  <si>
+    <t>Natural Realms of Earth</t>
+  </si>
+  <si>
+    <t>The Polar Regions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -107,8 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,7 +246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,20 +455,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -451,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -462,7 +504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -473,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -484,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -495,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -503,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -514,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -525,15 +567,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -544,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -555,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -566,8 +611,132 @@
         <v>5</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -577,7 +746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -589,7 +758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HTML5/HTML-SIMULATION-STATUS.xlsx
+++ b/HTML5/HTML-SIMULATION-STATUS.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\trunk\HTML5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="20120" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>SNO</t>
   </si>
@@ -108,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,7 +251,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,18 +462,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -504,7 +509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -515,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -526,7 +531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -537,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -545,7 +550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -556,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -567,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -578,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -589,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -600,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -611,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -619,7 +624,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>13</v>
       </c>
@@ -627,7 +632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>14</v>
       </c>
@@ -638,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>15</v>
       </c>
@@ -649,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>16</v>
       </c>
@@ -660,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17</v>
       </c>
@@ -668,7 +673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>18</v>
       </c>
@@ -679,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>19</v>
       </c>
@@ -690,15 +695,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>21</v>
       </c>
@@ -709,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>22</v>
       </c>
@@ -720,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>23</v>
       </c>
@@ -746,7 +754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -758,7 +766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HTML5/HTML-SIMULATION-STATUS.xlsx
+++ b/HTML5/HTML-SIMULATION-STATUS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\trunk\HTML5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="20120" windowHeight="8000"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>SNO</t>
   </si>
@@ -108,12 +103,27 @@
   </si>
   <si>
     <t>The Polar Regions</t>
+  </si>
+  <si>
+    <t>19-03-2020</t>
+  </si>
+  <si>
+    <t>Africa rivers</t>
+  </si>
+  <si>
+    <t>Rain_Rivers</t>
+  </si>
+  <si>
+    <t>Readingmaps</t>
+  </si>
+  <si>
+    <t>NEED PROPER OUTPUT IMAPGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,7 +261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,20 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -498,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -520,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -531,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -542,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -550,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -561,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -572,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -583,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -594,7 +604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -605,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -616,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -624,15 +634,18 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>14</v>
       </c>
@@ -643,7 +656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>15</v>
       </c>
@@ -654,26 +667,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>18</v>
       </c>
@@ -684,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>19</v>
       </c>
@@ -695,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>20</v>
       </c>
@@ -706,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>21</v>
       </c>
@@ -717,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>22</v>
       </c>
@@ -728,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>23</v>
       </c>
@@ -739,9 +755,51 @@
         <v>5</v>
       </c>
     </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -754,7 +812,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -766,7 +824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HTML5/HTML-SIMULATION-STATUS.xlsx
+++ b/HTML5/HTML-SIMULATION-STATUS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>SNO</t>
   </si>
@@ -118,6 +118,42 @@
   </si>
   <si>
     <t>NEED PROPER OUTPUT IMAPGE</t>
+  </si>
+  <si>
+    <t>AreasofTribalPeople</t>
+  </si>
+  <si>
+    <t>AttainingTheAgeOfAdolescence</t>
+  </si>
+  <si>
+    <t>Continents-Oceans</t>
+  </si>
+  <si>
+    <t>DistrictsofAP</t>
+  </si>
+  <si>
+    <t>FirstEmpires</t>
+  </si>
+  <si>
+    <t>Globe</t>
+  </si>
+  <si>
+    <t>Janapadas</t>
+  </si>
+  <si>
+    <t>LandformsofAP</t>
+  </si>
+  <si>
+    <t>our countryrivers</t>
+  </si>
+  <si>
+    <t>Salakamcheruvu</t>
+  </si>
+  <si>
+    <t>StagesInAgriculture</t>
+  </si>
+  <si>
+    <t>TribalVillages</t>
   </si>
 </sst>
 </file>
@@ -470,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,6 +829,157 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
         <v>5</v>
       </c>
     </row>

--- a/HTML5/HTML-SIMULATION-STATUS.xlsx
+++ b/HTML5/HTML-SIMULATION-STATUS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>SNO</t>
   </si>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +595,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -970,6 +973,9 @@
       </c>
       <c r="B44" t="s">
         <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
